--- a/src/reportes/ventas/ventas.xlsx
+++ b/src/reportes/ventas/ventas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Fecha</t>
   </si>
@@ -23,19 +23,34 @@
   </si>
   <si>
     <t>Tipo de venta</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>Efectivo</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Mayorista</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,8 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,24 +415,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>840</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1680</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2800</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2800</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/reportes/ventas/ventas.xlsx
+++ b/src/reportes/ventas/ventas.xlsx
@@ -11,7 +11,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+  <si>
+    <t>Cantidad de ventas</t>
+  </si>
+  <si>
+    <t>Total balanza</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Total en ventas</t>
+  </si>
+  <si>
+    <t>Total mercaderia</t>
+  </si>
+  <si>
+    <t>Total otros ingresos</t>
+  </si>
+  <si>
+    <t>Total adicional por credito</t>
+  </si>
+  <si>
+    <t>Total otros gastos</t>
+  </si>
+  <si>
+    <t>Total descuentos por sistema</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
   <si>
     <t>Fecha</t>
   </si>
@@ -35,6 +65,9 @@
   </si>
   <si>
     <t>Mayorista</t>
+  </si>
+  <si>
+    <t>Credito</t>
   </si>
 </sst>
 </file>
@@ -415,80 +448,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="4" width="18" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>840</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>9290.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>9240</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="E3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>61.6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>8790.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>9290.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>840</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
         <v>1680</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
         <v>2800</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
         <v>2800</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>1120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/reportes/ventas/ventas.xlsx
+++ b/src/reportes/ventas/ventas.xlsx
@@ -55,7 +55,7 @@
     <t>Tipo de venta</t>
   </si>
   <si>
-    <t>26-08-2021</t>
+    <t>25-08-2021</t>
   </si>
   <si>
     <t>Efectivo</t>
@@ -67,7 +67,7 @@
     <t>Mayorista</t>
   </si>
   <si>
-    <t>Credito</t>
+    <t>27-08-2021</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>520.59</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -473,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>9290.4</v>
+        <v>5140.59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -481,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>9240</v>
+        <v>4620</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -507,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>61.6</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -524,7 +524,7 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <v>8790.4</v>
+        <v>5140.59</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>9290.4</v>
+        <v>5140.59</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>840</v>
+        <v>733.53</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -576,7 +576,7 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>1680</v>
+        <v>1400</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -590,38 +590,38 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>2800</v>
+        <v>907.06</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12">
-        <v>2800</v>
+        <v>630</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>1120</v>
+        <v>1470</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/reportes/ventas/ventas.xlsx
+++ b/src/reportes/ventas/ventas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Cantidad de ventas</t>
   </si>
@@ -55,19 +55,13 @@
     <t>Tipo de venta</t>
   </si>
   <si>
-    <t>25-08-2021</t>
+    <t>30-08-2021</t>
   </si>
   <si>
     <t>Efectivo</t>
   </si>
   <si>
     <t>Normal</t>
-  </si>
-  <si>
-    <t>Mayorista</t>
-  </si>
-  <si>
-    <t>27-08-2021</t>
   </si>
 </sst>
 </file>
@@ -448,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -456,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -464,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>520.59</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -473,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>5140.59</v>
+        <v>910</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -481,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4620</v>
+        <v>980</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -515,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -524,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <v>5140.59</v>
+        <v>910</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>5140.59</v>
+        <v>910</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -562,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>733.53</v>
+        <v>280</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -576,52 +570,10 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>907.06</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>630</v>
-      </c>
-      <c r="D12" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>1470</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
